--- a/TP5/EJ1/Circuito con Legendre/Mediciones/Zin.xlsx
+++ b/TP5/EJ1/Circuito con Legendre/Mediciones/Zin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FD64CA-E209-46A6-85B9-DBAE07C58A8D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D419F-66E4-4DB3-9140-CA5943B157B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7188,27 +7188,27 @@
         <v>141</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D258" si="18">COMPLEX((10^(B195/20))*COS(RADIANS(C195)),(10^(B195/20))*SIN(RADIANS(C195)),"j")</f>
+        <f t="shared" ref="D195:D201" si="18">COMPLEX((10^(B195/20))*COS(RADIANS(C195)),(10^(B195/20))*SIN(RADIANS(C195)),"j")</f>
         <v>-0.0116279349752171+0.00941611608196059j</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E258" si="19">IMDIV(68000,(IMSUB(1,D195)))</f>
+        <f t="shared" ref="E195:E201" si="19">IMDIV(68000,(IMSUB(1,D195)))</f>
         <v>67212.5658682489+625.606807108739j</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F258" si="20">IMABS(E195)</f>
+        <f t="shared" ref="F195:F201" si="20">IMABS(E195)</f>
         <v>67215.477343174454</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G258" si="21">DEGREES(IMARGUMENT(E195))</f>
+        <f t="shared" ref="G195:G201" si="21">DEGREES(IMARGUMENT(E195))</f>
         <v>0.53328710367028387</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H258" si="22">IMREAL(E195)</f>
+        <f t="shared" ref="H195:H201" si="22">IMREAL(E195)</f>
         <v>67212.565868248901</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="23">IMAGINARY(E195)</f>
+        <f t="shared" ref="I195:I201" si="23">IMAGINARY(E195)</f>
         <v>625.60680710873896</v>
       </c>
     </row>

--- a/TP5/EJ1/Circuito con Legendre/Mediciones/Zin.xlsx
+++ b/TP5/EJ1/Circuito con Legendre/Mediciones/Zin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D419F-66E4-4DB3-9140-CA5943B157B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C46F294-BE9F-407C-B14B-5512BA2739EF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>relacion</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Freq</t>
+  </si>
+  <si>
+    <t>ZIN ABS COPY</t>
+  </si>
+  <si>
+    <t>ZIN PHA COPY</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +399,7 @@
     <col min="5" max="5" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -421,8 +427,14 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11000</v>
       </c>
@@ -456,8 +468,14 @@
         <f>IMAGINARY(E2)</f>
         <v>-165135.96174330599</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>229708.55566529173</v>
+      </c>
+      <c r="M2">
+        <v>-45.963191888689096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11112.044804589101</v>
       </c>
@@ -491,8 +509,14 @@
         <f t="shared" ref="I3:I66" si="5">IMAGINARY(E3)</f>
         <v>-165135.96174330599</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>229708.55566529173</v>
+      </c>
+      <c r="M3">
+        <v>-45.963191888689096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11225.230885381399</v>
       </c>
@@ -526,8 +550,14 @@
         <f t="shared" si="5"/>
         <v>-172247.883939883</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>233256.2496888414</v>
+      </c>
+      <c r="M4">
+        <v>-47.599475667121602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11339.569867292401</v>
       </c>
@@ -561,8 +591,14 @@
         <f t="shared" si="5"/>
         <v>-168094.44856678299</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>223286.31387447543</v>
+      </c>
+      <c r="M5">
+        <v>-48.835266876216956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11455.0734936474</v>
       </c>
@@ -596,8 +632,14 @@
         <f t="shared" si="5"/>
         <v>-172247.883939883</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>233256.2496888414</v>
+      </c>
+      <c r="M6">
+        <v>-47.599475667121602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11571.7536273883</v>
       </c>
@@ -631,8 +673,14 @@
         <f t="shared" si="5"/>
         <v>-172247.883939883</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>233256.2496888414</v>
+      </c>
+      <c r="M7">
+        <v>-47.599475667121602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11689.6222522915</v>
       </c>
@@ -666,8 +714,14 @@
         <f t="shared" si="5"/>
         <v>-163741.474231923</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>213976.52707483596</v>
+      </c>
+      <c r="M8">
+        <v>-49.927548191481293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11808.6914741986</v>
       </c>
@@ -701,8 +755,14 @@
         <f t="shared" si="5"/>
         <v>-174561.29206865799</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>226234.79100571506</v>
+      </c>
+      <c r="M9">
+        <v>-50.497199342238119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11928.973522260399</v>
       </c>
@@ -736,8 +796,14 @@
         <f t="shared" si="5"/>
         <v>-169508.390750789</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>216462.35886724666</v>
+      </c>
+      <c r="M10">
+        <v>-51.543894314436542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12050.480750192301</v>
       </c>
@@ -771,8 +837,14 @@
         <f t="shared" si="5"/>
         <v>-169508.390750789</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>216462.35886724666</v>
+      </c>
+      <c r="M11">
+        <v>-51.543894314436542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12173.225637543301</v>
       </c>
@@ -806,8 +878,14 @@
         <f t="shared" si="5"/>
         <v>-164442.342421423</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>207381.54304543207</v>
+      </c>
+      <c r="M12">
+        <v>-52.461668144015022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12297.220790977601</v>
       </c>
@@ -841,8 +919,14 @@
         <f t="shared" si="5"/>
         <v>-169508.390750789</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>216462.35886724666</v>
+      </c>
+      <c r="M13">
+        <v>-51.543894314436542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12422.478945569799</v>
       </c>
@@ -876,8 +960,14 @@
         <f t="shared" si="5"/>
         <v>-169566.82886444201</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>209379.29033132963</v>
+      </c>
+      <c r="M14">
+        <v>-54.081750007984212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12549.012966112499</v>
       </c>
@@ -911,8 +1001,14 @@
         <f t="shared" si="5"/>
         <v>-169566.82886444201</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>209379.29033132963</v>
+      </c>
+      <c r="M15">
+        <v>-54.081750007984212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12676.8358484374</v>
       </c>
@@ -946,8 +1042,14 @@
         <f t="shared" si="5"/>
         <v>-163991.77786355099</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>200606.28465345557</v>
+      </c>
+      <c r="M16">
+        <v>-54.833397434562798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12805.9607207508</v>
       </c>
@@ -981,8 +1083,14 @@
         <f t="shared" si="5"/>
         <v>-163991.77786355099</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>200606.28465345557</v>
+      </c>
+      <c r="M17">
+        <v>-54.833397434562798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12936.400844981001</v>
       </c>
@@ -1016,8 +1124,14 @@
         <f t="shared" si="5"/>
         <v>-153385.11676844099</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>184918.9786595066</v>
+      </c>
+      <c r="M18">
+        <v>-56.044538727575571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13068.169618141201</v>
       </c>
@@ -1051,8 +1165,14 @@
         <f t="shared" si="5"/>
         <v>-156934.46111828901</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>185972.63120737622</v>
+      </c>
+      <c r="M19">
+        <v>-57.54976759920406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13201.2805737051</v>
       </c>
@@ -1086,8 +1206,14 @@
         <f t="shared" si="5"/>
         <v>-156934.46111828901</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>185972.63120737622</v>
+      </c>
+      <c r="M20">
+        <v>-57.54976759920406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13335.7473829966</v>
       </c>
@@ -1121,8 +1247,14 @@
         <f t="shared" si="5"/>
         <v>-156934.46111828901</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>185972.63120737622</v>
+      </c>
+      <c r="M21">
+        <v>-57.54976759920406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13471.5838565946</v>
       </c>
@@ -1156,8 +1288,14 @@
         <f t="shared" si="5"/>
         <v>-151559.12749383799</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>178754.83438411716</v>
+      </c>
+      <c r="M22">
+        <v>-57.979700903493224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13608.8039457508</v>
       </c>
@@ -1191,8 +1329,14 @@
         <f t="shared" si="5"/>
         <v>-151559.12749383799</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>178754.83438411716</v>
+      </c>
+      <c r="M23">
+        <v>-57.979700903493224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13747.421743823001</v>
       </c>
@@ -1226,8 +1370,14 @@
         <f t="shared" si="5"/>
         <v>-146443.958139247</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>172048.6145871862</v>
+      </c>
+      <c r="M24">
+        <v>-58.340003427880717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13887.451487722101</v>
       </c>
@@ -1261,8 +1411,14 @@
         <f t="shared" si="5"/>
         <v>-149177.97430651099</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>172650.48524420496</v>
+      </c>
+      <c r="M25">
+        <v>-59.773957467863674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14028.9075593751</v>
       </c>
@@ -1296,8 +1452,14 @@
         <f t="shared" si="5"/>
         <v>-144032.834466542</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>166275.61394797693</v>
+      </c>
+      <c r="M26">
+        <v>-60.023390828879371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14171.8044872014</v>
       </c>
@@ -1331,8 +1493,14 @@
         <f t="shared" si="5"/>
         <v>-144032.834466542</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>166275.61394797693</v>
+      </c>
+      <c r="M27">
+        <v>-60.023390828879371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14316.156947605399</v>
       </c>
@@ -1366,8 +1534,14 @@
         <f t="shared" si="5"/>
         <v>-139166.16915502399</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>160341.95071755766</v>
+      </c>
+      <c r="M28">
+        <v>-60.219393134900272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14461.979766483801</v>
       </c>
@@ -1401,8 +1575,14 @@
         <f t="shared" si="5"/>
         <v>-134561.26280725401</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>154808.03662431389</v>
+      </c>
+      <c r="M29">
+        <v>-60.367391930375042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14609.2879207481</v>
       </c>
@@ -1436,8 +1616,14 @@
         <f t="shared" si="5"/>
         <v>-130201.653069939</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>149637.11382560735</v>
+      </c>
+      <c r="M30">
+        <v>-60.472127012324449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14758.0965398632</v>
       </c>
@@ -1471,8 +1657,14 @@
         <f t="shared" si="5"/>
         <v>-134561.26280725401</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>154808.03662431389</v>
+      </c>
+      <c r="M31">
+        <v>-60.367391930375042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14908.4209074011</v>
       </c>
@@ -1506,8 +1698,14 @@
         <f t="shared" si="5"/>
         <v>-134561.26280725401</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>154808.03662431389</v>
+      </c>
+      <c r="M32">
+        <v>-60.367391930375042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15060.2764626104</v>
       </c>
@@ -1541,8 +1739,14 @@
         <f t="shared" si="5"/>
         <v>-130201.653069939</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>149637.11382560735</v>
+      </c>
+      <c r="M33">
+        <v>-60.472127012324449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15213.6788020024</v>
       </c>
@@ -1576,8 +1780,14 @@
         <f t="shared" si="5"/>
         <v>-126071.44333816999</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>144796.53635656976</v>
+      </c>
+      <c r="M34">
+        <v>-60.537752309970493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>15368.6436809525</v>
       </c>
@@ -1611,8 +1821,14 @@
         <f t="shared" si="5"/>
         <v>-126071.44333816999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>144796.53635656976</v>
+      </c>
+      <c r="M35">
+        <v>-60.537752309970493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>15525.187015319099</v>
       </c>
@@ -1646,8 +1862,14 @@
         <f t="shared" si="5"/>
         <v>-119714.56620279999</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>135938.64987921153</v>
+      </c>
+      <c r="M36">
+        <v>-61.721044954530946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>15683.324883077399</v>
       </c>
@@ -1681,8 +1903,14 @@
         <f t="shared" si="5"/>
         <v>-119714.56620279999</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>135938.64987921153</v>
+      </c>
+      <c r="M37">
+        <v>-61.721044954530946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>15843.0735259712</v>
       </c>
@@ -1716,8 +1944,14 @@
         <f t="shared" si="5"/>
         <v>-114910.06356393899</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>131981.73122366323</v>
+      </c>
+      <c r="M38">
+        <v>-60.534411148857615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16004.4493511811</v>
       </c>
@@ -1751,8 +1985,14 @@
         <f t="shared" si="5"/>
         <v>-116074.501494253</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>131887.3681621271</v>
+      </c>
+      <c r="M39">
+        <v>-61.654821044913639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16167.468933009301</v>
       </c>
@@ -1786,8 +2026,14 @@
         <f t="shared" si="5"/>
         <v>-112620.690725521</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>128073.32827119851</v>
+      </c>
+      <c r="M40">
+        <v>-61.563498694951249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16332.149014582001</v>
       </c>
@@ -1821,8 +2067,14 @@
         <f t="shared" si="5"/>
         <v>-112620.690725521</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>128073.32827119851</v>
+      </c>
+      <c r="M41">
+        <v>-61.563498694951249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>16498.506509569201</v>
       </c>
@@ -1856,8 +2108,14 @@
         <f t="shared" si="5"/>
         <v>-105320.46257429299</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>121263.47504715453</v>
+      </c>
+      <c r="M42">
+        <v>-60.287782890216199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>16666.5585039217</v>
       </c>
@@ -1891,8 +2149,14 @@
         <f t="shared" si="5"/>
         <v>-105320.46257429299</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>121263.47504715453</v>
+      </c>
+      <c r="M43">
+        <v>-60.287782890216199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16836.322257625801</v>
       </c>
@@ -1926,8 +2190,14 @@
         <f t="shared" si="5"/>
         <v>-108361.75212121</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>124634.4447860833</v>
+      </c>
+      <c r="M44">
+        <v>-60.393238566286044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>17007.815206476302</v>
       </c>
@@ -1961,8 +2231,14 @@
         <f t="shared" si="5"/>
         <v>-99653.625216526503</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>115051.33563843543</v>
+      </c>
+      <c r="M45">
+        <v>-60.016184851172191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>17181.054963867002</v>
       </c>
@@ -1996,8 +2272,14 @@
         <f t="shared" si="5"/>
         <v>-97010.290510298699</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>112184.23905990976</v>
+      </c>
+      <c r="M46">
+        <v>-59.853123080315505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>17356.059322599802</v>
       </c>
@@ -2031,8 +2313,14 @@
         <f t="shared" si="5"/>
         <v>-99653.625216526503</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>115051.33563843543</v>
+      </c>
+      <c r="M47">
+        <v>-60.016184851172191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>17532.846256712401</v>
       </c>
@@ -2066,8 +2354,14 @@
         <f t="shared" si="5"/>
         <v>-97010.290510298699</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>112184.23905990976</v>
+      </c>
+      <c r="M48">
+        <v>-59.853123080315505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>17711.433923323701</v>
       </c>
@@ -2101,8 +2395,14 @@
         <f t="shared" si="5"/>
         <v>-97010.290510298699</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>112184.23905990976</v>
+      </c>
+      <c r="M49">
+        <v>-59.853123080315505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>17891.840664499399</v>
       </c>
@@ -2136,8 +2436,14 @@
         <f t="shared" si="5"/>
         <v>-92064.239288470693</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>106872.02512162369</v>
+      </c>
+      <c r="M50">
+        <v>-59.479076848135833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>18074.0850091352</v>
       </c>
@@ -2171,8 +2477,14 @@
         <f t="shared" si="5"/>
         <v>-91410.330207125793</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>107106.59014993225</v>
+      </c>
+      <c r="M51">
+        <v>-58.589133425694826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>18258.185674860299</v>
       </c>
@@ -2206,8 +2518,14 @@
         <f t="shared" si="5"/>
         <v>-91410.330207125793</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>107106.59014993225</v>
+      </c>
+      <c r="M52">
+        <v>-58.589133425694826</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>18444.161569959499</v>
       </c>
@@ -2241,8 +2559,14 @@
         <f t="shared" si="5"/>
         <v>-89138.874833053895</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>104653.62640743262</v>
+      </c>
+      <c r="M53">
+        <v>-58.402677462323503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>18632.031795315601</v>
       </c>
@@ -2276,8 +2600,14 @@
         <f t="shared" si="5"/>
         <v>-89138.874833053895</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>104653.62640743262</v>
+      </c>
+      <c r="M54">
+        <v>-58.402677462323503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>18821.815646370502</v>
       </c>
@@ -2311,8 +2641,14 @@
         <f t="shared" si="5"/>
         <v>-84300.5526785939</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>100326.16689288814</v>
+      </c>
+      <c r="M55">
+        <v>-57.168098863527028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>19013.532615107801</v>
       </c>
@@ -2346,8 +2682,14 @@
         <f t="shared" si="5"/>
         <v>-84300.5526785939</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>100326.16689288814</v>
+      </c>
+      <c r="M56">
+        <v>-57.168098863527028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>19207.2023920541</v>
       </c>
@@ -2381,8 +2723,14 @@
         <f t="shared" si="5"/>
         <v>-82324.814052335802</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>98203.772242036706</v>
+      </c>
+      <c r="M57">
+        <v>-56.961670098759726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>19402.844868301501</v>
       </c>
@@ -2416,8 +2764,14 @@
         <f t="shared" si="5"/>
         <v>-81764.296403324493</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>98433.888832009965</v>
+      </c>
+      <c r="M58">
+        <v>-56.165761842415137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>19600.4801375508</v>
       </c>
@@ -2451,8 +2805,14 @@
         <f t="shared" si="5"/>
         <v>-79897.411268026204</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>96412.906128591712</v>
+      </c>
+      <c r="M59">
+        <v>-55.965465431240844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>19800.128498174901</v>
       </c>
@@ -2486,8 +2846,14 @@
         <f t="shared" si="5"/>
         <v>-79897.411268026204</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>96412.906128591712</v>
+      </c>
+      <c r="M60">
+        <v>-55.965465431240844</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20001.810455303701</v>
       </c>
@@ -2521,8 +2887,14 @@
         <f t="shared" si="5"/>
         <v>-77576.839522597307</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>94706.109549399247</v>
+      </c>
+      <c r="M61">
+        <v>-54.998034270755518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20205.546722930401</v>
       </c>
@@ -2556,8 +2928,14 @@
         <f t="shared" si="5"/>
         <v>-74223.454836505494</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>91088.029496579315</v>
+      </c>
+      <c r="M62">
+        <v>-54.572938768895952</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20411.358226038399</v>
       </c>
@@ -2591,8 +2969,14 @@
         <f t="shared" si="5"/>
         <v>-72173.947828508404</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>89620.622866414473</v>
+      </c>
+      <c r="M63">
+        <v>-53.641890964137197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>20619.2661027506</v>
       </c>
@@ -2626,8 +3010,14 @@
         <f t="shared" si="5"/>
         <v>-70658.822791717306</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>87992.918767755924</v>
+      </c>
+      <c r="M64">
+        <v>-53.418099951054366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>20829.291706501001</v>
       </c>
@@ -2661,8 +3051,14 @@
         <f t="shared" si="5"/>
         <v>-68764.841091969705</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>86658.405721448857</v>
+      </c>
+      <c r="M65">
+        <v>-52.515322421392561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>21041.456608226901</v>
       </c>
@@ -2696,8 +3092,14 @@
         <f t="shared" si="5"/>
         <v>-68764.841091969705</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>86658.405721448857</v>
+      </c>
+      <c r="M66">
+        <v>-52.515322421392561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>21255.782598585101</v>
       </c>
@@ -2731,8 +3133,14 @@
         <f t="shared" ref="I67:I130" si="11">IMAGINARY(E67)</f>
         <v>-66944.424375421193</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>85380.828542930583</v>
+      </c>
+      <c r="M67">
+        <v>-51.634614509766109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>21472.291690189399</v>
       </c>
@@ -2766,8 +3174,14 @@
         <f t="shared" si="11"/>
         <v>-65609.849988047907</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>83940.761869889917</v>
+      </c>
+      <c r="M68">
+        <v>-51.409219771706077</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>21691.006119871901</v>
       </c>
@@ -2801,8 +3215,14 @@
         <f t="shared" si="11"/>
         <v>-65193.7341124917</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>84157.206807527968</v>
+      </c>
+      <c r="M69">
+        <v>-50.774768696874602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>21911.948350966701</v>
       </c>
@@ -2836,8 +3256,14 @@
         <f t="shared" si="11"/>
         <v>-65193.7341124917</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>84157.206807527968</v>
+      </c>
+      <c r="M70">
+        <v>-50.774768696874602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>22135.141075616801</v>
       </c>
@@ -2871,8 +3297,14 @@
         <f t="shared" si="11"/>
         <v>-63509.138231792997</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>82984.743886693337</v>
+      </c>
+      <c r="M71">
+        <v>-49.934668858705017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>22360.607217105</v>
       </c>
@@ -2906,8 +3338,14 @@
         <f t="shared" si="11"/>
         <v>-61887.204879009703</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>81860.815771080583</v>
+      </c>
+      <c r="M72">
+        <v>-49.113282256970706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>22588.369932208199</v>
       </c>
@@ -2941,8 +3379,14 @@
         <f t="shared" si="11"/>
         <v>-61887.204879009703</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>81860.815771080583</v>
+      </c>
+      <c r="M73">
+        <v>-49.113282256970706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>22818.452613575599</v>
       </c>
@@ -2976,8 +3420,14 @@
         <f t="shared" si="11"/>
         <v>-60324.694925289303</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>80782.960278112616</v>
+      </c>
+      <c r="M74">
+        <v>-48.309652303838376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>23050.878892131401</v>
       </c>
@@ -3011,8 +3461,14 @@
         <f t="shared" si="11"/>
         <v>-59915.511445206597</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>80973.298716726757</v>
+      </c>
+      <c r="M75">
+        <v>-47.726440220341573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>23285.6726395021</v>
       </c>
@@ -3046,8 +3502,14 @@
         <f t="shared" si="11"/>
         <v>-57365.902121781903</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>78756.366076164646</v>
+      </c>
+      <c r="M76">
+        <v>-46.752178135831713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>23522.857970467499</v>
       </c>
@@ -3081,8 +3543,14 @@
         <f t="shared" si="11"/>
         <v>-57365.902121781903</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>78756.366076164646</v>
+      </c>
+      <c r="M77">
+        <v>-46.752178135831713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>23762.459245438298</v>
       </c>
@@ -3116,8 +3584,14 @@
         <f t="shared" si="11"/>
         <v>-55964.027988391899</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>77803.421700366584</v>
+      </c>
+      <c r="M78">
+        <v>-45.996745711241509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>24004.501072957599</v>
       </c>
@@ -3151,8 +3625,14 @@
         <f t="shared" si="11"/>
         <v>-55579.207443012703</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>77983.080961593543</v>
+      </c>
+      <c r="M79">
+        <v>-45.455718731957703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>24249.008312228401</v>
       </c>
@@ -3186,8 +3666,14 @@
         <f t="shared" si="11"/>
         <v>-54233.726718109603</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>77064.858078663048</v>
+      </c>
+      <c r="M80">
+        <v>-44.727948546597418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>24496.006075666999</v>
       </c>
@@ -3221,8 +3707,14 @@
         <f t="shared" si="11"/>
         <v>-54233.726718109603</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>77064.858078663048</v>
+      </c>
+      <c r="M81">
+        <v>-44.727948546597418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>24745.519731481701</v>
       </c>
@@ -3256,8 +3748,14 @@
         <f t="shared" si="11"/>
         <v>-52038.261239741099</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>75163.3651077166</v>
+      </c>
+      <c r="M82">
+        <v>-43.815264462785244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>24997.574906278998</v>
       </c>
@@ -3291,8 +3789,14 @@
         <f t="shared" si="11"/>
         <v>-50815.398527998099</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>74350.631381788029</v>
+      </c>
+      <c r="M83">
+        <v>-43.114315108389683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>25252.197487695001</v>
       </c>
@@ -3326,8 +3830,14 @@
         <f t="shared" si="11"/>
         <v>-50462.9334233064</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>74520.06742790516</v>
+      </c>
+      <c r="M84">
+        <v>-42.623078135766583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25509.413627054601</v>
       </c>
@@ -3361,8 +3871,14 @@
         <f t="shared" si="11"/>
         <v>-49287.358029261799</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>73736.37511911802</v>
+      </c>
+      <c r="M85">
+        <v>-41.945748550600378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>25769.249742057</v>
       </c>
@@ -3396,8 +3912,14 @@
         <f t="shared" si="11"/>
         <v>-48936.322471704603</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>73897.48856629552</v>
+      </c>
+      <c r="M86">
+        <v>-41.469328259556292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>26031.732519489498</v>
       </c>
@@ -3431,8 +3953,14 @@
         <f t="shared" si="11"/>
         <v>-47806.358957422002</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>73142.061535618122</v>
+      </c>
+      <c r="M87">
+        <v>-40.814311918427464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>26296.888917967899</v>
       </c>
@@ -3466,8 +3994,14 @@
         <f t="shared" si="11"/>
         <v>-47457.855191390699</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>73295.686402783263</v>
+      </c>
+      <c r="M88">
+        <v>-40.352246564151486</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>26564.746170705701</v>
       </c>
@@ -3501,8 +4035,14 @@
         <f t="shared" si="11"/>
         <v>-46371.773367944399</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>72567.715775844175</v>
+      </c>
+      <c r="M89">
+        <v>-39.718321892077547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>26835.331788310799</v>
       </c>
@@ -3536,8 +4076,14 @@
         <f t="shared" si="11"/>
         <v>-46026.722504921803</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>72714.601079294589</v>
+      </c>
+      <c r="M90">
+        <v>-39.270156705618056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>27108.673561611398</v>
       </c>
@@ -3571,8 +4117,14 @@
         <f t="shared" si="11"/>
         <v>-45319.226725951303</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>71867.18275986657</v>
+      </c>
+      <c r="M91">
+        <v>-39.094178653795261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>27384.7995645097</v>
       </c>
@@ -3606,8 +4158,14 @@
         <f t="shared" si="11"/>
         <v>-44298.619580125</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <v>71192.871725697667</v>
+      </c>
+      <c r="M92">
+        <v>-38.479451222053797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>27663.7381568659</v>
       </c>
@@ -3641,8 +4199,14 @@
         <f t="shared" si="11"/>
         <v>-43638.344588531501</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>71478.519513809908</v>
+      </c>
+      <c r="M93">
+        <v>-37.626381989939112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>27945.517987410502</v>
       </c>
@@ -3676,8 +4240,14 @@
         <f t="shared" si="11"/>
         <v>-43302.353459965198</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L94">
+        <v>71613.87359186534</v>
+      </c>
+      <c r="M94">
+        <v>-37.204689743199602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>28230.167996687</v>
       </c>
@@ -3711,8 +4281,14 @@
         <f t="shared" si="11"/>
         <v>-42337.3922367165</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>70963.263231643839</v>
+      </c>
+      <c r="M95">
+        <v>-36.627490405893333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>28517.717420024001</v>
       </c>
@@ -3746,8 +4322,14 @@
         <f t="shared" si="11"/>
         <v>-41400.711539404598</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>70336.781229201326</v>
+      </c>
+      <c r="M96">
+        <v>-36.058208559613178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>28808.195790538</v>
       </c>
@@ -3781,8 +4363,14 @@
         <f t="shared" si="11"/>
         <v>-41078.706999275601</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>70467.192678522813</v>
+      </c>
+      <c r="M97">
+        <v>-35.658155473272785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>29101.632942166802</v>
       </c>
@@ -3816,8 +4404,14 @@
         <f t="shared" si="11"/>
         <v>-40177.350744769799</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>69863.798784043203</v>
+      </c>
+      <c r="M98">
+        <v>-35.105312366513594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>29398.059012733102</v>
       </c>
@@ -3851,8 +4445,14 @@
         <f t="shared" si="11"/>
         <v>-40426.282072293099</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L99">
+        <v>70714.827853975206</v>
+      </c>
+      <c r="M99">
+        <v>-34.867489461810592</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>29697.504447040599</v>
       </c>
@@ -3886,8 +4486,14 @@
         <f t="shared" si="11"/>
         <v>-38993.405563280299</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>69408.875282218578</v>
+      </c>
+      <c r="M100">
+        <v>-34.179871876695778</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>30000</v>
       </c>
@@ -3921,8 +4527,14 @@
         <f t="shared" si="11"/>
         <v>-38683.045980239302</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>69531.204955138892</v>
+      </c>
+      <c r="M101">
+        <v>-33.803115287633084</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>32999.999999999898</v>
       </c>
@@ -3956,8 +4568,14 @@
         <f t="shared" si="11"/>
         <v>-18772.724203003199</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L102">
+        <v>55010.075045137339</v>
+      </c>
+      <c r="M102">
+        <v>-19.953643156172951</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>33210.879877155203</v>
       </c>
@@ -3991,8 +4609,14 @@
         <f t="shared" si="11"/>
         <v>-17353.167673406799</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L103">
+        <v>54300.769265774616</v>
+      </c>
+      <c r="M103">
+        <v>-18.63722390010399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>33423.107339843402</v>
       </c>
@@ -4026,8 +4650,14 @@
         <f t="shared" si="11"/>
         <v>-16755.900434721902</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L104">
+        <v>54514.024926588943</v>
+      </c>
+      <c r="M104">
+        <v>-17.900722461314061</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>33636.690999539598</v>
       </c>
@@ -4061,8 +4691,14 @@
         <f t="shared" si="11"/>
         <v>-15990.9737057126</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L105">
+        <v>54353.116094738944</v>
+      </c>
+      <c r="M105">
+        <v>-17.109888571237608</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>33851.639522748403</v>
       </c>
@@ -4096,8 +4732,14 @@
         <f t="shared" si="11"/>
         <v>-15154.914714</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L106">
+        <v>54358.302838828422</v>
+      </c>
+      <c r="M106">
+        <v>-16.188400326898606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>34067.961631356302</v>
       </c>
@@ -4131,8 +4773,14 @@
         <f t="shared" si="11"/>
         <v>-14437.1693171309</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L107">
+        <v>54235.698715792372</v>
+      </c>
+      <c r="M107">
+        <v>-15.437859645293184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>34285.666102985102</v>
       </c>
@@ -4166,8 +4814,14 @@
         <f t="shared" si="11"/>
         <v>-13653.8377141234</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L108">
+        <v>54274.360865913121</v>
+      </c>
+      <c r="M108">
+        <v>-14.570476246845606</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>34504.761771348298</v>
       </c>
@@ -4201,8 +4855,14 @@
         <f t="shared" si="11"/>
         <v>-13146.2225155535</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L109">
+        <v>54509.561216831891</v>
+      </c>
+      <c r="M109">
+        <v>-13.955769226137312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>34725.257526609297</v>
       </c>
@@ -4236,8 +4896,14 @@
         <f t="shared" si="11"/>
         <v>-11924.157895627201</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L110">
+        <v>54227.179748724739</v>
+      </c>
+      <c r="M110">
+        <v>-12.702727501609283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>34947.162315742498</v>
       </c>
@@ -4271,8 +4937,14 @@
         <f t="shared" si="11"/>
         <v>-11224.133834022699</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L111">
+        <v>54317.64634509576</v>
+      </c>
+      <c r="M111">
+        <v>-11.925450307743303</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>35170.485142896097</v>
       </c>
@@ -4306,8 +4978,14 @@
         <f t="shared" si="11"/>
         <v>-10847.410717459699</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L112">
+        <v>54435.318636379954</v>
+      </c>
+      <c r="M112">
+        <v>-11.494364928149862</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>35395.235069757502</v>
       </c>
@@ -4341,8 +5019,14 @@
         <f t="shared" si="11"/>
         <v>-10183.845571188</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L113">
+        <v>54543.539073037049</v>
+      </c>
+      <c r="M113">
+        <v>-10.760868349620923</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>35621.421215920796</v>
       </c>
@@ -4376,8 +5060,14 @@
         <f t="shared" si="11"/>
         <v>-9695.8094428093991</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L114">
+        <v>54929.290697121069</v>
+      </c>
+      <c r="M114">
+        <v>-10.166797457537854</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>35849.052759257502</v>
       </c>
@@ -4411,8 +5101,14 @@
         <f t="shared" si="11"/>
         <v>-9073.9180906850797</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L115">
+        <v>55050.366986243789</v>
+      </c>
+      <c r="M115">
+        <v>-9.4873231968463489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>36078.138936287898</v>
       </c>
@@ -4446,8 +5142,14 @@
         <f t="shared" si="11"/>
         <v>-8266.0193322328305</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L116">
+        <v>55064.147045624071</v>
+      </c>
+      <c r="M116">
+        <v>-8.6336593360163736</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>36308.6890425569</v>
       </c>
@@ -4481,8 +5183,14 @@
         <f t="shared" si="11"/>
         <v>-7690.3216432930003</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L117">
+        <v>55214.827430188387</v>
+      </c>
+      <c r="M117">
+        <v>-8.0061856050488025</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>36540.712433010303</v>
       </c>
@@ -4516,8 +5224,14 @@
         <f t="shared" si="11"/>
         <v>-7331.6119764872401</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L118">
+        <v>55478.240628085368</v>
+      </c>
+      <c r="M118">
+        <v>-7.5940195943792297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>36774.2185223751</v>
       </c>
@@ -4551,8 +5265,14 @@
         <f t="shared" si="11"/>
         <v>-6982.8131102792404</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L119">
+        <v>55739.147614504429</v>
+      </c>
+      <c r="M119">
+        <v>-7.1967316474940279</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>37009.216785541103</v>
       </c>
@@ -4586,8 +5306,14 @@
         <f t="shared" si="11"/>
         <v>-6266.9969333261197</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L120">
+        <v>55812.286529551544</v>
+      </c>
+      <c r="M120">
+        <v>-6.447170761643477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>37245.7167579456</v>
       </c>
@@ -4621,8 +5347,14 @@
         <f t="shared" si="11"/>
         <v>-5946.5513709328898</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L121">
+        <v>56076.66663628324</v>
+      </c>
+      <c r="M121">
+        <v>-6.0872753502047745</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>37483.728035959997</v>
       </c>
@@ -4656,8 +5388,14 @@
         <f t="shared" si="11"/>
         <v>-5414.8913301118901</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L122">
+        <v>56372.114690987713</v>
+      </c>
+      <c r="M122">
+        <v>-5.5121138553388755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>37723.2602772795</v>
       </c>
@@ -4691,8 +5429,14 @@
         <f t="shared" si="11"/>
         <v>-4944.4057775133697</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L123">
+        <v>56559.669557285495</v>
+      </c>
+      <c r="M123">
+        <v>-5.0151576167543714</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>37964.323201314801</v>
       </c>
@@ -4726,8 +5470,14 @@
         <f t="shared" si="11"/>
         <v>-4490.9188416664701</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L124">
+        <v>56754.601539786076</v>
+      </c>
+      <c r="M124">
+        <v>-4.5384861681481352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>38206.926589586903</v>
       </c>
@@ -4761,8 +5511,14 @@
         <f t="shared" si="11"/>
         <v>-4188.68326691929</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L125">
+        <v>57124.062751963203</v>
+      </c>
+      <c r="M125">
+        <v>-4.2050485626614629</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>38451.080286122997</v>
       </c>
@@ -4796,8 +5552,14 @@
         <f t="shared" si="11"/>
         <v>-3929.5493437535501</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>57381.140991398126</v>
+      </c>
+      <c r="M126">
+        <v>-3.9267769947328071</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>38696.794197857002</v>
       </c>
@@ -4831,8 +5593,14 @@
         <f t="shared" si="11"/>
         <v>-3520.7773023710301</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L127">
+        <v>57581.904604521631</v>
+      </c>
+      <c r="M127">
+        <v>-3.5054690789061711</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>38944.078295031199</v>
       </c>
@@ -4866,8 +5634,14 @@
         <f t="shared" si="11"/>
         <v>-3256.2617239910301</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L128">
+        <v>57936.136086701554</v>
+      </c>
+      <c r="M128">
+        <v>-3.2219687596136333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>39192.942611600301</v>
       </c>
@@ -4901,8 +5675,14 @@
         <f t="shared" si="11"/>
         <v>-2878.03346586512</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L129">
+        <v>58140.855437067607</v>
+      </c>
+      <c r="M129">
+        <v>-2.8373608811932733</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>39443.397245639302</v>
       </c>
@@ -4936,8 +5716,14 @@
         <f t="shared" si="11"/>
         <v>-2808.0957846010401</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L130">
+        <v>58430.480309694904</v>
+      </c>
+      <c r="M130">
+        <v>-2.7546245453149885</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>39695.452359752802</v>
       </c>
@@ -4971,8 +5757,14 @@
         <f t="shared" ref="I131:I194" si="17">IMAGINARY(E131)</f>
         <v>-2432.84199496775</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L131">
+        <v>58727.800843233446</v>
+      </c>
+      <c r="M131">
+        <v>-2.3741988540057153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>39949.118181487604</v>
       </c>
@@ -5006,8 +5798,14 @@
         <f t="shared" si="17"/>
         <v>-2233.8534933368101</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L132">
+        <v>58967.506301228241</v>
+      </c>
+      <c r="M132">
+        <v>-2.1710433138458374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>40204.405003747299</v>
       </c>
@@ -5041,8 +5839,14 @@
         <f t="shared" si="17"/>
         <v>-1907.3249833008899</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L133">
+        <v>59173.766913379084</v>
+      </c>
+      <c r="M133">
+        <v>-1.847112481226669</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>40461.323185210698</v>
       </c>
@@ -5076,8 +5880,14 @@
         <f t="shared" si="17"/>
         <v>-1843.0232963037299</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L134">
+        <v>59522.653049574656</v>
+      </c>
+      <c r="M134">
+        <v>-1.7743553347640046</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>40719.8831507512</v>
       </c>
@@ -5111,8 +5921,14 @@
         <f t="shared" si="17"/>
         <v>-1540.5889179421699</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L135">
+        <v>59725.306335650981</v>
+      </c>
+      <c r="M135">
+        <v>-1.4780842457449144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>40980.095391860501</v>
       </c>
@@ -5146,8 +5962,14 @@
         <f t="shared" si="17"/>
         <v>-1376.2271394472</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L136">
+        <v>59951.505403258525</v>
+      </c>
+      <c r="M136">
+        <v>-1.3153787081938</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>41241.970467074003</v>
       </c>
@@ -5181,8 +6003,14 @@
         <f t="shared" si="17"/>
         <v>-1208.1669006894799</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L137">
+        <v>60253.573372613893</v>
+      </c>
+      <c r="M137">
+        <v>-1.1489360699725708</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>41505.5190023994</v>
       </c>
@@ -5216,8 +6044,14 @@
         <f t="shared" si="17"/>
         <v>-1059.03618982028</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L138">
+        <v>60470.510682048523</v>
+      </c>
+      <c r="M138">
+        <v>-1.0034875775237235</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>41770.751691747602</v>
       </c>
@@ -5251,8 +6085,14 @@
         <f t="shared" si="17"/>
         <v>-908.37082470109601</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L139">
+        <v>60758.688775544259</v>
+      </c>
+      <c r="M139">
+        <v>-0.85663062488285213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>42037.6792973669</v>
       </c>
@@ -5286,8 +6126,14 @@
         <f t="shared" si="17"/>
         <v>-552.93241693499897</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L140">
+        <v>60945.617025425512</v>
+      </c>
+      <c r="M140">
+        <v>-0.51982619951316167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>42306.312650279702</v>
       </c>
@@ -5321,8 +6167,14 @@
         <f t="shared" si="17"/>
         <v>-537.94466526831195</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L141">
+        <v>61161.09534971854</v>
+      </c>
+      <c r="M141">
+        <v>-0.50395363546672334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>42576.662650721599</v>
       </c>
@@ -5356,8 +6208,14 @@
         <f t="shared" si="17"/>
         <v>-311.17070349587101</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L142">
+        <v>61426.210738146954</v>
+      </c>
+      <c r="M142">
+        <v>-0.29024815398198162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>42848.740268584203</v>
       </c>
@@ -5391,8 +6249,14 @@
         <f t="shared" si="17"/>
         <v>-201.75169479080401</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L143">
+        <v>61624.508747232525</v>
+      </c>
+      <c r="M143">
+        <v>-0.1875802583424446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>43122.556543859799</v>
       </c>
@@ -5426,8 +6290,14 @@
         <f t="shared" si="17"/>
         <v>-196.149153165185</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L144">
+        <v>61821.29428183136</v>
+      </c>
+      <c r="M144">
+        <v>-0.18179071820295084</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>43398.122587089798</v>
       </c>
@@ -5461,8 +6331,14 @@
         <f t="shared" si="17"/>
         <v>94.438826585696802</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L145">
+        <v>62072.907504226416</v>
+      </c>
+      <c r="M145">
+        <v>8.7170852640112789E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>43675.449579815097</v>
       </c>
@@ -5496,8 +6372,14 @@
         <f t="shared" si="17"/>
         <v>91.775059443235605</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L146">
+        <v>62257.135471814057</v>
+      </c>
+      <c r="M146">
+        <v>8.4461410491355582E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>43954.548775030002</v>
       </c>
@@ -5531,8 +6413,14 @@
         <f t="shared" si="17"/>
         <v>178.325029780791</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L147">
+        <v>62438.293810342009</v>
+      </c>
+      <c r="M147">
+        <v>0.16363812741581585</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>44235.4314976389</v>
       </c>
@@ -5566,8 +6454,14 @@
         <f t="shared" si="17"/>
         <v>257.30282512969097</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L148">
+        <v>62672.447017453669</v>
+      </c>
+      <c r="M148">
+        <v>0.23522948365758889</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>44518.109144915601</v>
       </c>
@@ -5601,8 +6495,14 @@
         <f t="shared" si="17"/>
         <v>249.89531811108</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L149">
+        <v>62839.603235755159</v>
+      </c>
+      <c r="M149">
+        <v>0.22784970064809484</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>44802.5931869661</v>
       </c>
@@ -5636,8 +6536,14 @@
         <f t="shared" si="17"/>
         <v>323.47927200635201</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L150">
+        <v>63006.510204318853</v>
+      </c>
+      <c r="M150">
+        <v>0.29416132409876289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>45088.895167193397</v>
       </c>
@@ -5671,8 +6577,14 @@
         <f t="shared" si="17"/>
         <v>470.80378300029201</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L151">
+        <v>63176.730318881091</v>
+      </c>
+      <c r="M151">
+        <v>0.42698188543257559</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>45377.026702766903</v>
       </c>
@@ -5706,8 +6618,14 @@
         <f t="shared" si="17"/>
         <v>452.49962972759499</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L152">
+        <v>63379.132079352697</v>
+      </c>
+      <c r="M152">
+        <v>0.40907059513103011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>45666.999485092601</v>
       </c>
@@ -5741,8 +6659,14 @@
         <f t="shared" si="17"/>
         <v>585.02458846833599</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L153">
+        <v>63542.436594677973</v>
+      </c>
+      <c r="M153">
+        <v>0.52752011404096422</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>45958.825280288598</v>
       </c>
@@ -5776,8 +6700,14 @@
         <f t="shared" si="17"/>
         <v>631.90567360407499</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L154">
+        <v>63740.33813650845</v>
+      </c>
+      <c r="M154">
+        <v>0.56802524576587632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>46252.515929661502</v>
       </c>
@@ -5811,8 +6741,14 @@
         <f t="shared" si="17"/>
         <v>613.05963002279395</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L155">
+        <v>63876.276928952473</v>
+      </c>
+      <c r="M155">
+        <v>0.54991102117990265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>46548.083350187801</v>
       </c>
@@ -5846,8 +6782,14 @@
         <f t="shared" si="17"/>
         <v>725.86332717803498</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L156">
+        <v>64029.846608387626</v>
+      </c>
+      <c r="M156">
+        <v>0.6495376482419668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>46845.539534996897</v>
       </c>
@@ -5881,8 +6823,14 @@
         <f t="shared" si="17"/>
         <v>759.60003038395303</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L157">
+        <v>64210.712342704726</v>
+      </c>
+      <c r="M157">
+        <v>0.67781355230092399</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>47144.8965538579</v>
       </c>
@@ -5916,8 +6864,14 @@
         <f t="shared" si="17"/>
         <v>797.28157668864299</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L158">
+        <v>64345.222085791043</v>
+      </c>
+      <c r="M158">
+        <v>0.70995229977609398</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>47446.166553669202</v>
       </c>
@@ -5951,8 +6905,14 @@
         <f t="shared" si="17"/>
         <v>714.20883939971998</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L159">
+        <v>64450.696005889156</v>
+      </c>
+      <c r="M159">
+        <v>0.63493479953413845</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>47749.361758951803</v>
       </c>
@@ -5986,8 +6946,14 @@
         <f t="shared" si="17"/>
         <v>749.44062966833701</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L160">
+        <v>64577.177141282235</v>
+      </c>
+      <c r="M160">
+        <v>0.66495240144272572</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>48054.494472344799</v>
       </c>
@@ -6021,8 +6987,14 @@
         <f t="shared" si="17"/>
         <v>773.50503230635195</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L161">
+        <v>64736.38437043094</v>
+      </c>
+      <c r="M161">
+        <v>0.68461698663246096</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>48361.577075105102</v>
       </c>
@@ -6056,8 +7028,14 @@
         <f t="shared" si="17"/>
         <v>802.37160749784596</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L162">
+        <v>64855.097609141594</v>
+      </c>
+      <c r="M162">
+        <v>0.70886763335685643</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>48670.622027609097</v>
       </c>
@@ -6091,8 +7069,14 @@
         <f t="shared" si="17"/>
         <v>828.44436594467197</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L163">
+        <v>64970.632271451126</v>
+      </c>
+      <c r="M163">
+        <v>0.73060166447677999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>48981.641869859101</v>
       </c>
@@ -6126,8 +7110,14 @@
         <f t="shared" si="17"/>
         <v>842.92581319031103</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L164">
+        <v>65115.062711019811</v>
+      </c>
+      <c r="M164">
+        <v>0.74172454911782015</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>49294.649221991698</v>
       </c>
@@ -6161,8 +7151,14 @@
         <f t="shared" si="17"/>
         <v>769.60786475827399</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L165">
+        <v>65195.882354763125</v>
+      </c>
+      <c r="M165">
+        <v>0.676366437504896</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>49609.656784790102</v>
       </c>
@@ -6196,8 +7192,14 @@
         <f t="shared" si="17"/>
         <v>791.14631912939399</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L166">
+        <v>65300.302373202256</v>
+      </c>
+      <c r="M166">
+        <v>0.69418444383688116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>49926.677340198898</v>
       </c>
@@ -6231,8 +7233,14 @@
         <f t="shared" si="17"/>
         <v>801.74046669997699</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L167">
+        <v>65430.490587317559</v>
+      </c>
+      <c r="M167">
+        <v>0.70208085223360872</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>50245.723751843499</v>
       </c>
@@ -6266,8 +7274,14 @@
         <f t="shared" si="17"/>
         <v>901.69350071702002</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L168">
+        <v>65557.041333327186</v>
+      </c>
+      <c r="M168">
+        <v>0.78809018909268957</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>50566.8089655515</v>
       </c>
@@ -6301,8 +7315,14 @@
         <f t="shared" si="17"/>
         <v>833.01705561802999</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L169">
+        <v>65622.921455763528</v>
+      </c>
+      <c r="M169">
+        <v>0.72733188935206095</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>50889.946009878397</v>
       </c>
@@ -6336,8 +7356,14 @@
         <f t="shared" si="17"/>
         <v>806.65444840467399</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L170">
+        <v>65701.060636425143</v>
+      </c>
+      <c r="M170">
+        <v>0.70347504595045063</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>51215.1479966361</v>
       </c>
@@ -6371,8 +7397,14 @@
         <f t="shared" si="17"/>
         <v>856.201289948615</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L171">
+        <v>65804.362590021963</v>
+      </c>
+      <c r="M171">
+        <v>0.74551447157820983</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>51542.428121424498</v>
       </c>
@@ -6406,8 +7438,14 @@
         <f t="shared" si="17"/>
         <v>891.17200932464596</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L172">
+        <v>65929.316757726774</v>
+      </c>
+      <c r="M172">
+        <v>0.7744953607972741</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>51871.799664167796</v>
       </c>
@@ -6441,8 +7479,14 @@
         <f t="shared" si="17"/>
         <v>862.70530955270101</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L173">
+        <v>65997.736634826579</v>
+      </c>
+      <c r="M173">
+        <v>0.74897691192329552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>52203.275989652699</v>
       </c>
@@ -6476,8 +7520,14 @@
         <f t="shared" si="17"/>
         <v>801.89181103251894</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L174">
+        <v>66050.078749743625</v>
+      </c>
+      <c r="M174">
+        <v>0.69562589516903905</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>52536.870548070998</v>
       </c>
@@ -6511,8 +7561,14 @@
         <f t="shared" si="17"/>
         <v>808.30584483225596</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L175">
+        <v>66128.04233505977</v>
+      </c>
+      <c r="M175">
+        <v>0.70036349431712863</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>52872.596875564799</v>
       </c>
@@ -6546,8 +7602,14 @@
         <f t="shared" si="17"/>
         <v>773.84732713068695</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L176">
+        <v>66210.283861214295</v>
+      </c>
+      <c r="M176">
+        <v>0.66967233429513862</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>53210.468594776903</v>
       </c>
@@ -6581,8 +7643,14 @@
         <f t="shared" si="17"/>
         <v>748.91690260646203</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L177">
+        <v>66269.641717842926</v>
+      </c>
+      <c r="M177">
+        <v>0.64751657060042589</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>53550.499415402301</v>
       </c>
@@ -6616,8 +7684,14 @@
         <f t="shared" si="17"/>
         <v>781.71893435435095</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L178">
+        <v>66352.72926329379</v>
+      </c>
+      <c r="M178">
+        <v>0.67503224623280733</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>53892.703134745498</v>
       </c>
@@ -6651,8 +7725,14 @@
         <f t="shared" si="17"/>
         <v>783.688852658374</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L179">
+        <v>66420.617462211128</v>
+      </c>
+      <c r="M179">
+        <v>0.67604167680173921</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>54237.093638279403</v>
       </c>
@@ -6686,8 +7766,14 @@
         <f t="shared" si="17"/>
         <v>758.28204057098606</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L180">
+        <v>66473.180546374322</v>
+      </c>
+      <c r="M180">
+        <v>0.65360650059758962</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>54583.684900209599</v>
       </c>
@@ -6721,8 +7807,14 @@
         <f t="shared" si="17"/>
         <v>733.66015672012998</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L181">
+        <v>66524.028516503196</v>
+      </c>
+      <c r="M181">
+        <v>0.63189923517536595</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>54932.490984040996</v>
       </c>
@@ -6756,8 +7848,14 @@
         <f t="shared" si="17"/>
         <v>750.22988069214102</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L182">
+        <v>66614.077898984047</v>
+      </c>
+      <c r="M182">
+        <v>0.64529774996306932</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>55283.526043148602</v>
       </c>
@@ -6791,8 +7889,14 @@
         <f t="shared" si="17"/>
         <v>771.61257060435503</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L183">
+        <v>66685.964280371001</v>
+      </c>
+      <c r="M183">
+        <v>0.66297504668203333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>55636.804321351301</v>
       </c>
@@ -6826,8 +7930,14 @@
         <f t="shared" si="17"/>
         <v>724.33238413439904</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L184">
+        <v>66717.291246360328</v>
+      </c>
+      <c r="M184">
+        <v>0.6220576873893614</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>55992.340153490499</v>
       </c>
@@ -6861,8 +7971,14 @@
         <f t="shared" si="17"/>
         <v>700.64168082816002</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L185">
+        <v>66760.170789209922</v>
+      </c>
+      <c r="M185">
+        <v>0.60132482813131483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>56350.147966011798</v>
       </c>
@@ -6896,8 +8012,14 @@
         <f t="shared" si="17"/>
         <v>698.32572694816804</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L186">
+        <v>66813.436415015676</v>
+      </c>
+      <c r="M186">
+        <v>0.5988592645832983</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>56710.2422775499</v>
       </c>
@@ -6931,8 +8053,14 @@
         <f t="shared" si="17"/>
         <v>655.47568159958701</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L187">
+        <v>66841.739897787964</v>
+      </c>
+      <c r="M187">
+        <v>0.56187334653638954</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>57072.637699517603</v>
       </c>
@@ -6966,8 +8094,14 @@
         <f t="shared" si="17"/>
         <v>664.89369268243104</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L188">
+        <v>66915.343093188276</v>
+      </c>
+      <c r="M188">
+        <v>0.56931979350529505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>57437.348936699404</v>
       </c>
@@ -7001,8 +8135,14 @@
         <f t="shared" si="17"/>
         <v>643.01940839137399</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L189">
+        <v>66951.705299975074</v>
+      </c>
+      <c r="M189">
+        <v>0.55029016065348901</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>57804.390787847697</v>
       </c>
@@ -7036,8 +8176,14 @@
         <f t="shared" si="17"/>
         <v>656.62448111484503</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L190">
+        <v>67008.850207141251</v>
+      </c>
+      <c r="M190">
+        <v>0.56145439726536328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>58173.778146283403</v>
       </c>
@@ -7071,8 +8217,14 @@
         <f t="shared" si="17"/>
         <v>618.23807803331397</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L191">
+        <v>67031.347390964089</v>
+      </c>
+      <c r="M191">
+        <v>0.52845327164879941</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>58545.5260004999</v>
       </c>
@@ -7106,8 +8258,14 @@
         <f t="shared" si="17"/>
         <v>597.82916524573602</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L192">
+        <v>67063.871846405775</v>
+      </c>
+      <c r="M192">
+        <v>0.51075997800722617</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>58919.649434771803</v>
       </c>
@@ -7141,8 +8299,14 @@
         <f t="shared" si="17"/>
         <v>578.07509273046503</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L193">
+        <v>67095.3160278797</v>
+      </c>
+      <c r="M193">
+        <v>0.49365104450253117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>59296.163629766801</v>
       </c>
@@ -7176,8 +8340,14 @@
         <f t="shared" si="17"/>
         <v>661.13408085922197</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L194">
+        <v>67199.413180260934</v>
+      </c>
+      <c r="M194">
+        <v>0.56370735777049252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>59675.083863161497</v>
       </c>
@@ -7211,8 +8381,14 @@
         <f t="shared" ref="I195:I201" si="23">IMAGINARY(E195)</f>
         <v>625.60680710873896</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L195">
+        <v>67215.477343174454</v>
+      </c>
+      <c r="M195">
+        <v>0.53328710367028387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>60056.425510261302</v>
       </c>
@@ -7246,8 +8422,14 @@
         <f t="shared" si="23"/>
         <v>578.05670137438199</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L196">
+        <v>67221.494560410283</v>
+      </c>
+      <c r="M196">
+        <v>0.49270873448965014</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>60440.204044624501</v>
       </c>
@@ -7281,8 +8463,14 @@
         <f t="shared" si="23"/>
         <v>558.86787053788998</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L197">
+        <v>67247.712388902641</v>
+      </c>
+      <c r="M197">
+        <v>0.4761669616916388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>60826.435038690201</v>
       </c>
@@ -7316,8 +8504,14 @@
         <f t="shared" si="23"/>
         <v>565.31653578862495</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L198">
+        <v>67292.149159903609</v>
+      </c>
+      <c r="M198">
+        <v>0.48134341077962667</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>61215.134164409901</v>
       </c>
@@ -7351,8 +8545,14 @@
         <f t="shared" si="23"/>
         <v>558.36546524266396</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L199">
+        <v>67325.56127587767</v>
+      </c>
+      <c r="M199">
+        <v>0.47518878026043299</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>61606.317193883697</v>
       </c>
@@ -7386,8 +8586,14 @@
         <f t="shared" si="23"/>
         <v>504.961332503199</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L200">
+        <v>67321.224315634303</v>
+      </c>
+      <c r="M200">
+        <v>0.42976676027049854</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>61999.999999999898</v>
       </c>
@@ -7420,6 +8626,12 @@
       <c r="I201">
         <f t="shared" si="23"/>
         <v>510.72227587591601</v>
+      </c>
+      <c r="L201">
+        <v>67361.376739874831</v>
+      </c>
+      <c r="M201">
+        <v>0.43441082541110959</v>
       </c>
     </row>
   </sheetData>
